--- a/output/zaluski/2018/sheets/year_2018.xlsx
+++ b/output/zaluski/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61.61290322580643</v>
+        <v>67.20941069181544</v>
       </c>
       <c r="C2" t="n">
-        <v>50.38709677419356</v>
+        <v>61.33732834304631</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>68.14642857142857</v>
+        <v>68.31474274795032</v>
       </c>
       <c r="C3" t="n">
-        <v>61.12142857142857</v>
+        <v>61.68662663707728</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>68.57741935483871</v>
+        <v>68.71663999108448</v>
       </c>
       <c r="C4" t="n">
-        <v>59.50645161290323</v>
+        <v>61.76090415362469</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.31666666666667</v>
+        <v>69.22262916991677</v>
       </c>
       <c r="C5" t="n">
-        <v>34.94666666666667</v>
+        <v>62.5110669325733</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>69.57741935483871</v>
+        <v>69.6658618964328</v>
       </c>
       <c r="C6" t="n">
-        <v>63.35806451612903</v>
+        <v>63.78779332591903</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>69.20666666666668</v>
+        <v>69.26440820325232</v>
       </c>
       <c r="C7" t="n">
-        <v>62.05333333333333</v>
+        <v>62.44894368275947</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>69.33548387096775</v>
+        <v>69.372795327524</v>
       </c>
       <c r="C8" t="n">
-        <v>62.4741935483871</v>
+        <v>62.68378326665655</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>69.71935483870966</v>
+        <v>69.83147642349059</v>
       </c>
       <c r="C9" t="n">
-        <v>62.89354838709678</v>
+        <v>63.35387932051204</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>69.81999999999999</v>
+        <v>69.90014617581312</v>
       </c>
       <c r="C10" t="n">
-        <v>62.72333333333334</v>
+        <v>63.14875104622838</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>69.82903225806452</v>
+        <v>70.00856249184734</v>
       </c>
       <c r="C11" t="n">
-        <v>62.55806451612903</v>
+        <v>63.00172311213284</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>67.36666666666666</v>
+        <v>70.16352767321557</v>
       </c>
       <c r="C12" t="n">
-        <v>58.44666666666667</v>
+        <v>63.09613474823273</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>68.63548387096773</v>
+        <v>68.90490939951366</v>
       </c>
       <c r="C13" t="n">
-        <v>60.93870967741935</v>
+        <v>62.2206839015164</v>
       </c>
     </row>
   </sheetData>
